--- a/data/trans_camb/P22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-6,53</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 13,13</t>
+          <t>-8,0; 12,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 17,04</t>
+          <t>-5,39; 18,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 17,0</t>
+          <t>4,47; 29,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 13,3</t>
+          <t>-15,62; 12,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 12,96</t>
+          <t>-2,52; 24,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 12,96</t>
+          <t>-8,67; 12,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 10,28</t>
+          <t>-7,85; 13,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 12,16</t>
+          <t>-11,12; 11,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 10,8</t>
+          <t>-18,92; 4,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,81; 5,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 10,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 13,18</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 18,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 5,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 11,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-16,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-8,78%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 68,28</t>
+          <t>-25,97; 63,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 83,21</t>
+          <t>-17,04; 91,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 80,66</t>
+          <t>14,36; 148,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 40,19</t>
+          <t>-31,82; 36,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 38,44</t>
+          <t>-7,01; 102,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 39,1</t>
+          <t>-19,57; 36,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 36,19</t>
+          <t>-18,24; 39,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 43,41</t>
+          <t>-24,69; 34,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 38,47</t>
+          <t>-40,17; 13,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-40,54; 18,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 38,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 47,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 65,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; 14,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 40,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,6</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 4,59</t>
+          <t>-20,29; 4,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 4,32</t>
+          <t>-21,75; 4,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 4,41</t>
+          <t>-20,58; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 10,03</t>
+          <t>-7,55; 22,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 5,81</t>
+          <t>-3,93; 23,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 11,5</t>
+          <t>-8,52; 10,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 5,41</t>
+          <t>-13,23; 6,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 2,72</t>
+          <t>-10,48; 10,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 5,42</t>
+          <t>-11,87; 8,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 7,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; 4,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 1,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 6,33</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 12,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 12,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,53%</t>
+          <t>-20,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,72%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-9,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,4%</t>
+          <t>-5,13%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-7,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 15,86</t>
+          <t>-43,76; 13,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 13,26</t>
+          <t>-46,41; 12,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 14,68</t>
+          <t>-47,91; 22,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 34,85</t>
+          <t>-17,05; 94,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 22,48</t>
+          <t>-10,39; 104,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 42,12</t>
+          <t>-22,29; 36,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 17,34</t>
+          <t>-34,77; 21,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 8,62</t>
+          <t>-26,57; 35,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 17,38</t>
+          <t>-30,43; 28,04</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-32,15; 25,12</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-26,91; 13,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,95; 6,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-32,89; 19,16</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-14,23; 44,5</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 43,41</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 8,89</t>
+          <t>-12,53; 6,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 11,28</t>
+          <t>-11,62; 8,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 11,24</t>
+          <t>-15,03; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 4,09</t>
+          <t>3,06; 20,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 6,23</t>
+          <t>-3,62; 14,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 3,99</t>
+          <t>-10,83; 4,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 4,49</t>
+          <t>-7,76; 6,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,63</t>
+          <t>-7,47; 7,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 4,74</t>
+          <t>-12,67; 4,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 8,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 3,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 5,18</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 3,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 9,77</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 9,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>-20,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-11,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 34,54</t>
+          <t>-32,56; 23,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 41,91</t>
+          <t>-29,95; 30,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 44,6</t>
+          <t>-40,54; 9,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 12,4</t>
+          <t>11,75; 98,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 17,89</t>
+          <t>-9,91; 56,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 11,12</t>
+          <t>-25,5; 12,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 14,22</t>
+          <t>-18,33; 20,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 17,96</t>
+          <t>-17,84; 21,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 14,47</t>
+          <t>-29,93; 13,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,49; 29,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,28; 9,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; 16,47</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,09; 9,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 34,17</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 32,69</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-7,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 5,56</t>
+          <t>-11,96; 6,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 3,72</t>
+          <t>-13,64; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 9,76</t>
+          <t>-16,6; 2,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,33</t>
+          <t>-1,13; 17,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 6,38</t>
+          <t>-8,59; 11,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 8,79</t>
+          <t>-7,59; 7,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,29</t>
+          <t>-10,0; 5,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 2,38</t>
+          <t>-15,38; 0,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,69</t>
+          <t>-4,35; 13,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 5,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 4,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; 1,84</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-13,75; -1,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 12,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 5,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,66%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-12,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 15,03</t>
+          <t>-24,73; 18,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 9,98</t>
+          <t>-29,15; 10,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 26,42</t>
+          <t>-34,87; 6,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 20,47</t>
+          <t>-2,43; 57,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 14,05</t>
+          <t>-17,96; 30,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 19,19</t>
+          <t>-14,18; 16,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 12,74</t>
+          <t>-17,92; 12,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 5,82</t>
+          <t>-28,55; 0,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 15,8</t>
+          <t>-9,27; 34,27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-22,5; 13,11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,27; 9,98</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 4,08</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-27,73; -2,97</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 35,05</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 12,06</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 8,79</t>
+          <t>-10,52; 8,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 11,4</t>
+          <t>-7,56; 12,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 15,1</t>
+          <t>-7,65; 12,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 6,43</t>
+          <t>-8,58; 11,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 8,03</t>
+          <t>-12,04; 8,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 0,73</t>
+          <t>-12,65; 7,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 4,46</t>
+          <t>-9,39; 8,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 6,9</t>
+          <t>-17,7; 2,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 5,84</t>
+          <t>-11,34; 7,77</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 8,66</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 4,63</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 7,39</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 4,55</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 6,95</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 6,27</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,98%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 29,34</t>
+          <t>-25,13; 28,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 36,78</t>
+          <t>-18,25; 40,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 47,2</t>
+          <t>-18,76; 41,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,26</t>
+          <t>-20,2; 33,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 16,95</t>
+          <t>-25,45; 24,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 1,46</t>
+          <t>-22,09; 15,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 11,19</t>
+          <t>-16,26; 18,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 16,9</t>
+          <t>-30,97; 5,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 14,19</t>
+          <t>-22,18; 19,17</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 22,23</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; 11,04</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; 18,13</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 11,31</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 18,19</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 16,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-5,14</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-5,05</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 17,78</t>
+          <t>-5,89; 16,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 15,5</t>
+          <t>-6,46; 16,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 6,21</t>
+          <t>-9,87; 13,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -0,72</t>
+          <t>-17,42; 5,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 3,02</t>
+          <t>-9,66; 11,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 6,48</t>
+          <t>-19,09; 0,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 4,44</t>
+          <t>-15,33; 5,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 5,05</t>
+          <t>-12,77; 9,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 4,14</t>
+          <t>-16,89; 6,46</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 8,79</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 3,94</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 6,98</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 8,13</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 4,03</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 7,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-14,29%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-17,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-10,08%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-11,05%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 56,5</t>
+          <t>-14,95; 50,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 50,75</t>
+          <t>-15,13; 51,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 19,26</t>
+          <t>-24,4; 43,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -1,95</t>
+          <t>-39,11; 17,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 5,96</t>
+          <t>-25,66; 44,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 13,54</t>
+          <t>-32,56; 1,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 10,07</t>
+          <t>-26,55; 11,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 11,8</t>
+          <t>-22,33; 19,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 9,35</t>
+          <t>-30,18; 14,2</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-27,32; 21,74</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-21,66; 9,21</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 16,67</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; 18,86</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,05; 9,41</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-22,13; 21,9</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,47</t>
+          <t>-5,39; 3,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,8</t>
+          <t>-5,06; 3,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,02</t>
+          <t>-5,19; 4,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,3</t>
+          <t>-0,59; 8,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,71</t>
+          <t>-0,53; 9,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,87</t>
+          <t>-6,19; 1,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,51</t>
+          <t>-5,34; 2,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,5</t>
+          <t>-6,52; 1,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,66</t>
+          <t>-6,81; 1,73</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 1,79</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 1,09</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,81</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 1,48</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 4,01</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 4,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-5,75%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 10,41</t>
+          <t>-14,07; 9,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 11,62</t>
+          <t>-13,45; 10,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 12,15</t>
+          <t>-13,5; 12,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 3,08</t>
+          <t>-1,49; 27,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 3,93</t>
+          <t>-1,39; 28,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 4,31</t>
+          <t>-12,98; 3,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,91</t>
+          <t>-11,34; 4,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 3,97</t>
+          <t>-14,06; 3,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 4,19</t>
+          <t>-15,31; 4,28</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 4,61</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 2,76</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 4,62</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; 3,79</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 10,73</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 11,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
